--- a/data/trans_bre/CoPsoQ_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/CoPsoQ_R2-Habitat-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-8.16232899152819</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.311819897501304</v>
+        <v>1.311819897501293</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.1508370686003929</v>
@@ -627,7 +627,7 @@
         <v>-0.1478069199946411</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02802092304790859</v>
+        <v>0.02802092304790834</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-17.15443980693511</v>
+        <v>-16.93036396133568</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.68691416651934</v>
+        <v>-17.84256325128905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.43480808446184</v>
+        <v>-16.45587879095016</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.322027640895982</v>
+        <v>-0.3175251087476195</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.315536689050768</v>
+        <v>-0.2962540796360344</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2613911701036876</v>
+        <v>-0.2945057010923485</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.928467648358815</v>
+        <v>3.451252992823191</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.854087711394725</v>
+        <v>1.830004172578648</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.96932242930177</v>
+        <v>18.16955275572812</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.0871762975953462</v>
+        <v>0.08031876880285616</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03484326453385044</v>
+        <v>0.03468925093746142</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4965870990793751</v>
+        <v>0.5132482537330662</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-0.03020074479734847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6.749585552858589</v>
+        <v>6.749585552858594</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.09245916107991756</v>
@@ -709,7 +709,7 @@
         <v>-0.0005579322615057369</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1596615314129146</v>
+        <v>0.1596615314129147</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-13.45053821402591</v>
+        <v>-13.73853364118209</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.876505015219569</v>
+        <v>-7.9178285175538</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.896956995984556</v>
+        <v>-5.775279620444358</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2136327391990936</v>
+        <v>-0.220522963902051</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1352203800416872</v>
+        <v>-0.1383477880108676</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1241604484337285</v>
+        <v>-0.114364210568351</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.661154136084448</v>
+        <v>2.803879386337393</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.65042271615394</v>
+        <v>8.101041578624461</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.5645765365331</v>
+        <v>17.90815373815906</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.04777159728188481</v>
+        <v>0.04974055335646387</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1521933342887575</v>
+        <v>0.157129265059395</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5315004096491649</v>
+        <v>0.507257935307311</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>3.427461715546576</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.498159886608784</v>
+        <v>6.498159886608779</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.04596586577354185</v>
@@ -791,7 +791,7 @@
         <v>0.05609478939931536</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1549764709307266</v>
+        <v>0.1549764709307264</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.849664567716993</v>
+        <v>-5.928619316246568</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.993600841401247</v>
+        <v>-4.618304112670966</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.804593425015677</v>
+        <v>-9.43702299224497</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.09203004167107309</v>
+        <v>-0.09233743257647119</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.05996537459036396</v>
+        <v>-0.07124176668536046</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1916167000946026</v>
+        <v>-0.1751450950020318</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.79412929313488</v>
+        <v>12.90048547177485</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.51705094132037</v>
+        <v>11.09261657503948</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22.09195540106357</v>
+        <v>21.90426283392353</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.2085421612119167</v>
+        <v>0.2331260119933756</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2030218366580058</v>
+        <v>0.1955380901430688</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6934162902687467</v>
+        <v>0.673880827948392</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>2.426511243510299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10.00549780123968</v>
+        <v>10.00549780123967</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.09869831793387489</v>
@@ -873,7 +873,7 @@
         <v>0.04857404790434409</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3536928969959756</v>
+        <v>0.3536928969959752</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-13.97633901206932</v>
+        <v>-13.78727002816235</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.34156069885009</v>
+        <v>-4.867193513722059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.903861748388338</v>
+        <v>-1.551134295320636</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2220324468235414</v>
+        <v>-0.2174155634098263</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1025782836736876</v>
+        <v>-0.09218908647881778</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05630415715972744</v>
+        <v>-0.0541774884235884</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9539737008654351</v>
+        <v>2.274143669479455</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.40860310771981</v>
+        <v>10.36111421742536</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21.12900328921246</v>
+        <v>22.41522483728287</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01632817539394911</v>
+        <v>0.03791361857952706</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2249216258392868</v>
+        <v>0.2198213331219856</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9655646939843396</v>
+        <v>1.004288346608703</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.2357442505702356</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.3661794668123</v>
+        <v>6.366179466812288</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.06777471889934621</v>
@@ -955,7 +955,7 @@
         <v>0.004292070805408203</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.160252083152017</v>
+        <v>0.1602520831520167</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.215108498362703</v>
+        <v>-8.225024960721125</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.941258483374591</v>
+        <v>-3.740798123975122</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7155142489335851</v>
+        <v>-0.3613787506374521</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1378913046487514</v>
+        <v>-0.1361007181835698</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.07124214656327936</v>
+        <v>-0.06590403277502806</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.01821554182627939</v>
+        <v>-0.00845169572815351</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5593058686665126</v>
+        <v>0.6086087689168992</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.423639785174439</v>
+        <v>4.166076783199526</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.26594891427784</v>
+        <v>13.06690687954064</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.009940844770087035</v>
+        <v>0.01108820930098998</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08404160451827154</v>
+        <v>0.07774352291759361</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3715089493326593</v>
+        <v>0.35543349544348</v>
       </c>
     </row>
     <row r="19">
